--- a/data/BACandBLUE_GC DATAFRAMES/DA_MHdata_SWD_SBERRY_BLANK_PRO_REP.xlsx
+++ b/data/BACandBLUE_GC DATAFRAMES/DA_MHdata_SWD_SBERRY_BLANK_PRO_REP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jbrown\Documents\GitHub\BACandBlue\data\BACandBLUE_GC DATAFRAMES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056CB852-4634-40CB-8B4F-0E75AF7FA57B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E20F99-27F9-47A1-8979-7E78222FC062}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="861" activeTab="8" xr2:uid="{C4AC97C8-60C3-47CA-82BC-ADA2FD4A8BF8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="861" firstSheet="3" activeTab="8" xr2:uid="{C4AC97C8-60C3-47CA-82BC-ADA2FD4A8BF8}"/>
   </bookViews>
   <sheets>
     <sheet name="DA output 208-23 and 002-10" sheetId="9" r:id="rId1"/>
@@ -97418,14 +97418,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B83C7A9-8B68-4B8D-B1E3-BC669EF71DAF}">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
